--- a/reuslt/task2_accuracys.xlsx
+++ b/reuslt/task2_accuracys.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="975" yWindow="0" windowWidth="27825" windowHeight="12210"/>
+    <workbookView xWindow="1950" yWindow="0" windowWidth="27825" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -237,10 +237,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$B$2:$B$32</c:f>
+              <c:f>工作表1!$B$2:$B$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>8</c:v>
                 </c:pt>
@@ -330,9 +330,6 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>26</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1482,8 +1479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S15" sqref="S15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
